--- a/server/src/uploads/excels/414128/exam.1.mini-test1.xlsx
+++ b/server/src/uploads/excels/414128/exam.1.mini-test1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\414128\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1168AD-C78A-4D1A-8700-3B60337A226B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BB13E7-AC52-4037-992E-270F46CD5FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-163" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2355,8 +2355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L101"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4848,6 +4848,9 @@
       </c>
       <c r="J75" s="5" t="s">
         <v>28</v>
+      </c>
+      <c r="K75">
+        <v>7</v>
       </c>
       <c r="L75" t="s">
         <v>519</v>

--- a/server/src/uploads/excels/414128/exam.1.mini-test1.xlsx
+++ b/server/src/uploads/excels/414128/exam.1.mini-test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\414128\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BB13E7-AC52-4037-992E-270F46CD5FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CABA4D7-BE7D-4A44-88AA-C03901CC3CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="541">
   <si>
     <t>number</t>
   </si>
@@ -1883,49 +1883,97 @@
     <t>category</t>
   </si>
   <si>
-    <t>detail,inference</t>
-  </si>
-  <si>
-    <t>inference</t>
-  </si>
-  <si>
-    <t>vocabulary</t>
-  </si>
-  <si>
-    <t>real_situation</t>
-  </si>
-  <si>
-    <t>main_idea</t>
-  </si>
-  <si>
-    <t>tone_and_purpose,main_idea</t>
-  </si>
-  <si>
-    <t>tone_and_purpose</t>
-  </si>
-  <si>
-    <t>grammar,vocabulary</t>
-  </si>
-  <si>
-    <t>grammar</t>
-  </si>
-  <si>
-    <t>text_completion</t>
-  </si>
-  <si>
-    <t>text_completion,vocabulary,grammar</t>
-  </si>
-  <si>
-    <t>text_completion,vocabulary</t>
-  </si>
-  <si>
-    <t>text_completion,grammar,vocabulary</t>
-  </si>
-  <si>
-    <t>text_completion,grammar</t>
-  </si>
-  <si>
-    <t>connecting_ideas</t>
+    <t>ActionDescription</t>
+  </si>
+  <si>
+    <t>PersonPosition</t>
+  </si>
+  <si>
+    <t>EnvironmentSetting</t>
+  </si>
+  <si>
+    <t>YesNoQuestion</t>
+  </si>
+  <si>
+    <t>WhQuestion</t>
+  </si>
+  <si>
+    <t>ChoiceQuestion</t>
+  </si>
+  <si>
+    <t>ConversationPurpose</t>
+  </si>
+  <si>
+    <t>RelationshipInference</t>
+  </si>
+  <si>
+    <t>DetailComprehension</t>
+  </si>
+  <si>
+    <t>EmotionIntention</t>
+  </si>
+  <si>
+    <t>OutcomePredict</t>
+  </si>
+  <si>
+    <t>MainTopicIdentification</t>
+  </si>
+  <si>
+    <t>DetailExtraction</t>
+  </si>
+  <si>
+    <t>SpeakerIntention</t>
+  </si>
+  <si>
+    <t>ImpliedInformation</t>
+  </si>
+  <si>
+    <t>ContextRecognition</t>
+  </si>
+  <si>
+    <t>VocabularyFill</t>
+  </si>
+  <si>
+    <t>PrepositionChoice</t>
+  </si>
+  <si>
+    <t>TenseUsage</t>
+  </si>
+  <si>
+    <t>GrammarStructure</t>
+  </si>
+  <si>
+    <t>VerbFormSelection</t>
+  </si>
+  <si>
+    <t>VocabularyInsertion</t>
+  </si>
+  <si>
+    <t>LogicalCompletion</t>
+  </si>
+  <si>
+    <t>TextCoherence</t>
+  </si>
+  <si>
+    <t>SentenceRelationship</t>
+  </si>
+  <si>
+    <t>MainIdea</t>
+  </si>
+  <si>
+    <t>DetailInformation</t>
+  </si>
+  <si>
+    <t>WordInference</t>
+  </si>
+  <si>
+    <t>AuthorPerspective</t>
+  </si>
+  <si>
+    <t>ComparativeAnalysis</t>
+  </si>
+  <si>
+    <t>InformationRelationship</t>
   </si>
 </sst>
 </file>
@@ -1935,7 +1983,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1977,6 +2025,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAA9BF5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2031,7 +2085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2049,6 +2103,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2355,8 +2412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2442,8 +2499,8 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
-        <v>294</v>
+      <c r="L2" s="11" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2477,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2511,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2545,7 +2602,7 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2577,7 +2634,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2609,7 +2666,7 @@
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2641,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2672,8 +2729,8 @@
       <c r="K9">
         <v>2</v>
       </c>
-      <c r="L9" t="s">
-        <v>511</v>
+      <c r="L9" s="11" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2704,8 +2761,8 @@
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" t="s">
-        <v>511</v>
+      <c r="L10" s="11" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2736,8 +2793,8 @@
       <c r="K11">
         <v>2</v>
       </c>
-      <c r="L11" t="s">
-        <v>511</v>
+      <c r="L11" s="11" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2768,8 +2825,8 @@
       <c r="K12">
         <v>2</v>
       </c>
-      <c r="L12" t="s">
-        <v>511</v>
+      <c r="L12" s="11" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2800,8 +2857,8 @@
       <c r="K13">
         <v>2</v>
       </c>
-      <c r="L13" t="s">
-        <v>513</v>
+      <c r="L13" s="11" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2832,8 +2889,8 @@
       <c r="K14">
         <v>2</v>
       </c>
-      <c r="L14" t="s">
-        <v>513</v>
+      <c r="L14" s="11" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2864,8 +2921,8 @@
       <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" t="s">
-        <v>513</v>
+      <c r="L15" s="11" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2900,8 +2957,8 @@
       <c r="K16">
         <v>3</v>
       </c>
-      <c r="L16" t="s">
-        <v>514</v>
+      <c r="L16" s="11" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2934,8 +2991,8 @@
       <c r="K17">
         <v>3</v>
       </c>
-      <c r="L17" t="s">
-        <v>514</v>
+      <c r="L17" s="11" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2968,8 +3025,8 @@
       <c r="K18">
         <v>3</v>
       </c>
-      <c r="L18" t="s">
-        <v>514</v>
+      <c r="L18" s="11" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3003,7 +3060,7 @@
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3037,7 +3094,7 @@
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>294</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -3071,7 +3128,7 @@
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>294</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -3104,8 +3161,8 @@
       <c r="K22">
         <v>3</v>
       </c>
-      <c r="L22" t="s">
-        <v>294</v>
+      <c r="L22" s="11" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -3138,8 +3195,8 @@
       <c r="K23">
         <v>3</v>
       </c>
-      <c r="L23" t="s">
-        <v>294</v>
+      <c r="L23" s="11" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -3172,8 +3229,8 @@
       <c r="K24">
         <v>3</v>
       </c>
-      <c r="L24" t="s">
-        <v>294</v>
+      <c r="L24" s="11" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3206,8 +3263,8 @@
       <c r="K25">
         <v>3</v>
       </c>
-      <c r="L25" t="s">
-        <v>294</v>
+      <c r="L25" s="11" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -3240,8 +3297,8 @@
       <c r="K26">
         <v>3</v>
       </c>
-      <c r="L26" t="s">
-        <v>294</v>
+      <c r="L26" s="11" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3274,8 +3331,8 @@
       <c r="K27">
         <v>3</v>
       </c>
-      <c r="L27" t="s">
-        <v>294</v>
+      <c r="L27" s="11" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3308,8 +3365,8 @@
       <c r="K28">
         <v>3</v>
       </c>
-      <c r="L28" t="s">
-        <v>294</v>
+      <c r="L28" s="11" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3342,8 +3399,8 @@
       <c r="K29">
         <v>3</v>
       </c>
-      <c r="L29" t="s">
-        <v>515</v>
+      <c r="L29" s="11" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3376,8 +3433,8 @@
       <c r="K30">
         <v>3</v>
       </c>
-      <c r="L30" t="s">
-        <v>516</v>
+      <c r="L30" s="11" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3410,8 +3467,8 @@
       <c r="K31">
         <v>3</v>
       </c>
-      <c r="L31" t="s">
-        <v>516</v>
+      <c r="L31" s="11" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3444,8 +3501,8 @@
       <c r="K32">
         <v>3</v>
       </c>
-      <c r="L32" t="s">
-        <v>516</v>
+      <c r="L32" s="11" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3478,8 +3535,8 @@
       <c r="K33">
         <v>3</v>
       </c>
-      <c r="L33" t="s">
-        <v>516</v>
+      <c r="L33" s="11" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3512,8 +3569,8 @@
       <c r="K34">
         <v>4</v>
       </c>
-      <c r="L34" t="s">
-        <v>514</v>
+      <c r="L34" s="11" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3546,8 +3603,8 @@
       <c r="K35">
         <v>4</v>
       </c>
-      <c r="L35" t="s">
-        <v>514</v>
+      <c r="L35" s="11" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3580,8 +3637,8 @@
       <c r="K36">
         <v>4</v>
       </c>
-      <c r="L36" t="s">
-        <v>514</v>
+      <c r="L36" s="11" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3616,8 +3673,8 @@
       <c r="K37">
         <v>4</v>
       </c>
-      <c r="L37" t="s">
-        <v>514</v>
+      <c r="L37" s="11" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -3650,8 +3707,8 @@
       <c r="K38">
         <v>4</v>
       </c>
-      <c r="L38" t="s">
-        <v>514</v>
+      <c r="L38" s="11" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3684,8 +3741,8 @@
       <c r="K39">
         <v>4</v>
       </c>
-      <c r="L39" t="s">
-        <v>294</v>
+      <c r="L39" s="11" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3716,8 +3773,8 @@
       <c r="K40">
         <v>4</v>
       </c>
-      <c r="L40" t="s">
-        <v>294</v>
+      <c r="L40" s="11" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3750,8 +3807,8 @@
       <c r="K41">
         <v>4</v>
       </c>
-      <c r="L41" t="s">
-        <v>294</v>
+      <c r="L41" s="11" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3784,8 +3841,8 @@
       <c r="K42">
         <v>4</v>
       </c>
-      <c r="L42" t="s">
-        <v>294</v>
+      <c r="L42" s="11" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3818,8 +3875,8 @@
       <c r="K43">
         <v>4</v>
       </c>
-      <c r="L43" t="s">
-        <v>294</v>
+      <c r="L43" s="11" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3852,8 +3909,8 @@
       <c r="K44">
         <v>4</v>
       </c>
-      <c r="L44" t="s">
-        <v>294</v>
+      <c r="L44" s="11" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -3886,8 +3943,8 @@
       <c r="K45">
         <v>4</v>
       </c>
-      <c r="L45" t="s">
-        <v>294</v>
+      <c r="L45" s="11" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3920,8 +3977,8 @@
       <c r="K46">
         <v>4</v>
       </c>
-      <c r="L46" t="s">
-        <v>516</v>
+      <c r="L46" s="11" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3954,8 +4011,8 @@
       <c r="K47">
         <v>4</v>
       </c>
-      <c r="L47" t="s">
-        <v>516</v>
+      <c r="L47" s="11" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3988,8 +4045,8 @@
       <c r="K48">
         <v>4</v>
       </c>
-      <c r="L48" t="s">
-        <v>516</v>
+      <c r="L48" s="11" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -4022,8 +4079,8 @@
       <c r="K49">
         <v>4</v>
       </c>
-      <c r="L49" t="s">
-        <v>516</v>
+      <c r="L49" s="11" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -4056,8 +4113,8 @@
       <c r="K50">
         <v>4</v>
       </c>
-      <c r="L50" t="s">
-        <v>516</v>
+      <c r="L50" s="11" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -4090,8 +4147,8 @@
       <c r="K51">
         <v>4</v>
       </c>
-      <c r="L51" t="s">
-        <v>516</v>
+      <c r="L51" s="11" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -4124,8 +4181,8 @@
       <c r="K52">
         <v>5</v>
       </c>
-      <c r="L52" t="s">
-        <v>517</v>
+      <c r="L52" s="11" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -4156,8 +4213,8 @@
       <c r="K53">
         <v>5</v>
       </c>
-      <c r="L53" t="s">
-        <v>517</v>
+      <c r="L53" s="11" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -4188,8 +4245,8 @@
       <c r="K54">
         <v>5</v>
       </c>
-      <c r="L54" t="s">
-        <v>517</v>
+      <c r="L54" s="11" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -4220,8 +4277,8 @@
       <c r="K55">
         <v>5</v>
       </c>
-      <c r="L55" t="s">
-        <v>517</v>
+      <c r="L55" s="11" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -4252,8 +4309,8 @@
       <c r="K56">
         <v>5</v>
       </c>
-      <c r="L56" t="s">
-        <v>517</v>
+      <c r="L56" s="11" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -4284,8 +4341,8 @@
       <c r="K57">
         <v>5</v>
       </c>
-      <c r="L57" t="s">
-        <v>517</v>
+      <c r="L57" s="11" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -4316,8 +4373,8 @@
       <c r="K58">
         <v>5</v>
       </c>
-      <c r="L58" t="s">
-        <v>517</v>
+      <c r="L58" s="11" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -4348,8 +4405,8 @@
       <c r="K59">
         <v>5</v>
       </c>
-      <c r="L59" t="s">
-        <v>518</v>
+      <c r="L59" s="11" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -4380,8 +4437,8 @@
       <c r="K60">
         <v>5</v>
       </c>
-      <c r="L60" t="s">
-        <v>518</v>
+      <c r="L60" s="11" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -4412,8 +4469,8 @@
       <c r="K61">
         <v>5</v>
       </c>
-      <c r="L61" t="s">
-        <v>518</v>
+      <c r="L61" s="11" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -4444,8 +4501,8 @@
       <c r="K62">
         <v>5</v>
       </c>
-      <c r="L62" t="s">
-        <v>518</v>
+      <c r="L62" s="11" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4476,8 +4533,8 @@
       <c r="K63">
         <v>5</v>
       </c>
-      <c r="L63" t="s">
-        <v>518</v>
+      <c r="L63" s="11" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -4508,8 +4565,8 @@
       <c r="K64">
         <v>5</v>
       </c>
-      <c r="L64" t="s">
-        <v>519</v>
+      <c r="L64" s="11" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -4540,8 +4597,8 @@
       <c r="K65">
         <v>5</v>
       </c>
-      <c r="L65" t="s">
-        <v>519</v>
+      <c r="L65" s="11" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="104.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4574,8 +4631,8 @@
       <c r="K66">
         <v>6</v>
       </c>
-      <c r="L66" t="s">
-        <v>520</v>
+      <c r="L66" s="11" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -4604,8 +4661,8 @@
       <c r="K67">
         <v>6</v>
       </c>
-      <c r="L67" t="s">
-        <v>521</v>
+      <c r="L67" s="11" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -4634,8 +4691,8 @@
       <c r="K68">
         <v>6</v>
       </c>
-      <c r="L68" t="s">
-        <v>521</v>
+      <c r="L68" s="11" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="123.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -4666,8 +4723,8 @@
       <c r="K69">
         <v>6</v>
       </c>
-      <c r="L69" t="s">
-        <v>521</v>
+      <c r="L69" s="11" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -4696,8 +4753,8 @@
       <c r="K70">
         <v>6</v>
       </c>
-      <c r="L70" t="s">
-        <v>521</v>
+      <c r="L70" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -4726,8 +4783,8 @@
       <c r="K71">
         <v>6</v>
       </c>
-      <c r="L71" t="s">
-        <v>521</v>
+      <c r="L71" s="11" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="131.30000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4758,8 +4815,8 @@
       <c r="K72">
         <v>6</v>
       </c>
-      <c r="L72" t="s">
-        <v>522</v>
+      <c r="L72" s="11" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4788,8 +4845,8 @@
       <c r="K73">
         <v>6</v>
       </c>
-      <c r="L73" t="s">
-        <v>523</v>
+      <c r="L73" s="11" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -4818,8 +4875,8 @@
       <c r="K74">
         <v>6</v>
       </c>
-      <c r="L74" t="s">
-        <v>523</v>
+      <c r="L74" s="11" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4852,8 +4909,8 @@
       <c r="K75">
         <v>7</v>
       </c>
-      <c r="L75" t="s">
-        <v>519</v>
+      <c r="L75" s="11" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -4884,8 +4941,8 @@
       <c r="K76">
         <v>7</v>
       </c>
-      <c r="L76" t="s">
-        <v>514</v>
+      <c r="L76" s="11" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -4916,8 +4973,8 @@
       <c r="K77">
         <v>7</v>
       </c>
-      <c r="L77" t="s">
-        <v>514</v>
+      <c r="L77" s="11" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -4948,8 +5005,8 @@
       <c r="K78">
         <v>7</v>
       </c>
-      <c r="L78" t="s">
-        <v>294</v>
+      <c r="L78" s="11" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -4980,8 +5037,8 @@
       <c r="K79">
         <v>7</v>
       </c>
-      <c r="L79" t="s">
-        <v>524</v>
+      <c r="L79" s="11" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="102.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5014,8 +5071,8 @@
       <c r="K80">
         <v>7</v>
       </c>
-      <c r="L80" t="s">
-        <v>524</v>
+      <c r="L80" s="11" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -5046,8 +5103,8 @@
       <c r="K81">
         <v>7</v>
       </c>
-      <c r="L81" t="s">
-        <v>524</v>
+      <c r="L81" s="11" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -5078,8 +5135,8 @@
       <c r="K82">
         <v>7</v>
       </c>
-      <c r="L82" t="s">
-        <v>524</v>
+      <c r="L82" s="11" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -5110,8 +5167,8 @@
       <c r="K83">
         <v>7</v>
       </c>
-      <c r="L83" t="s">
-        <v>524</v>
+      <c r="L83" s="11" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -5142,8 +5199,8 @@
       <c r="K84">
         <v>7</v>
       </c>
-      <c r="L84" t="s">
-        <v>516</v>
+      <c r="L84" s="11" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="99.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5176,8 +5233,8 @@
       <c r="K85">
         <v>7</v>
       </c>
-      <c r="L85" t="s">
-        <v>516</v>
+      <c r="L85" s="11" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5208,8 +5265,8 @@
       <c r="K86">
         <v>7</v>
       </c>
-      <c r="L86" t="s">
-        <v>516</v>
+      <c r="L86" s="11" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5240,8 +5297,8 @@
       <c r="K87">
         <v>7</v>
       </c>
-      <c r="L87" t="s">
-        <v>516</v>
+      <c r="L87" s="11" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -5272,8 +5329,8 @@
       <c r="K88">
         <v>7</v>
       </c>
-      <c r="L88" t="s">
-        <v>516</v>
+      <c r="L88" s="11" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -5304,8 +5361,8 @@
       <c r="K89">
         <v>7</v>
       </c>
-      <c r="L89" t="s">
-        <v>516</v>
+      <c r="L89" s="11" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5338,8 +5395,8 @@
       <c r="K90">
         <v>7</v>
       </c>
-      <c r="L90" t="s">
-        <v>516</v>
+      <c r="L90" s="11" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -5370,8 +5427,8 @@
       <c r="K91">
         <v>7</v>
       </c>
-      <c r="L91" t="s">
-        <v>516</v>
+      <c r="L91" s="11" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -5402,8 +5459,8 @@
       <c r="K92">
         <v>7</v>
       </c>
-      <c r="L92" t="s">
-        <v>516</v>
+      <c r="L92" s="11" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="72.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5436,8 +5493,8 @@
       <c r="K93">
         <v>7</v>
       </c>
-      <c r="L93" t="s">
-        <v>516</v>
+      <c r="L93" s="11" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -5468,8 +5525,8 @@
       <c r="K94">
         <v>7</v>
       </c>
-      <c r="L94" t="s">
-        <v>516</v>
+      <c r="L94" s="11" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="99.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -5502,8 +5559,8 @@
       <c r="K95">
         <v>7</v>
       </c>
-      <c r="L95" t="s">
-        <v>516</v>
+      <c r="L95" s="11" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -5534,8 +5591,8 @@
       <c r="K96">
         <v>7</v>
       </c>
-      <c r="L96" t="s">
-        <v>516</v>
+      <c r="L96" s="11" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -5566,8 +5623,8 @@
       <c r="K97">
         <v>7</v>
       </c>
-      <c r="L97" t="s">
-        <v>516</v>
+      <c r="L97" s="11" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="86.3" customHeight="1" x14ac:dyDescent="0.25">
@@ -5600,8 +5657,8 @@
       <c r="K98">
         <v>7</v>
       </c>
-      <c r="L98" t="s">
-        <v>516</v>
+      <c r="L98" s="11" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -5632,8 +5689,8 @@
       <c r="K99">
         <v>7</v>
       </c>
-      <c r="L99" t="s">
-        <v>516</v>
+      <c r="L99" s="11" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="107.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -5666,8 +5723,8 @@
       <c r="K100">
         <v>7</v>
       </c>
-      <c r="L100" t="s">
-        <v>516</v>
+      <c r="L100" s="11" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -5698,8 +5755,8 @@
       <c r="K101">
         <v>7</v>
       </c>
-      <c r="L101" t="s">
-        <v>516</v>
+      <c r="L101" s="11" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/server/src/uploads/excels/414128/exam.1.mini-test1.xlsx
+++ b/server/src/uploads/excels/414128/exam.1.mini-test1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\414128\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CABA4D7-BE7D-4A44-88AA-C03901CC3CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88A610C-BB07-4A8C-847D-55A9DE847DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="543">
   <si>
     <t>number</t>
   </si>
@@ -1974,6 +1974,19 @@
   </si>
   <si>
     <t>InformationRelationship</t>
+  </si>
+  <si>
+    <t>transcript</t>
+  </si>
+  <si>
+    <t>Speaker 1:
+How do you like our new brochure? Doesn't it look very nice?
+Speaker 2:
+Yes, it's much better than the old one we used to have. I especially like the pictures. Did we get them done professionally?
+Speaker 1:
+No, and that's what's great about it. John from the sales department is a semi-pro in photography. He took all the pictures for us.
+Speaker 2:
+Wow, he is good. He should have pursued a career in photography. It's really good.</t>
   </si>
 </sst>
 </file>
@@ -2047,7 +2060,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2081,11 +2094,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2105,6 +2127,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2410,10 +2439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L101"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2429,7 +2458,7 @@
     <col min="10" max="10" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2466,8 +2495,11 @@
       <c r="L1" s="10" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2503,7 +2535,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2537,7 +2569,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2571,7 +2603,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2605,7 +2637,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2637,7 +2669,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2669,7 +2701,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2701,7 +2733,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2733,7 +2765,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2765,7 +2797,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2797,7 +2829,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2829,7 +2861,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2861,7 +2893,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2893,7 +2925,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2925,7 +2957,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2960,8 +2992,11 @@
       <c r="L16" s="11" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2994,8 +3029,11 @@
       <c r="L17" s="11" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3028,8 +3066,11 @@
       <c r="L18" s="11" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="13" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3063,7 +3104,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3097,7 +3138,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3131,7 +3172,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3165,7 +3206,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3199,7 +3240,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3233,7 +3274,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3267,7 +3308,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3301,7 +3342,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3335,7 +3376,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3369,7 +3410,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3403,7 +3444,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3437,7 +3478,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3471,7 +3512,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>

--- a/server/src/uploads/excels/414128/exam.1.mini-test1.xlsx
+++ b/server/src/uploads/excels/414128/exam.1.mini-test1.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\414128\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FC0711-BB98-4A83-A4CF-59B0D0A90B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-163" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="18285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="557">
   <si>
     <t>number</t>
   </si>
@@ -52,6 +59,15 @@
     <t>correctanswer</t>
   </si>
   <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>transcript</t>
+  </si>
+  <si>
     <t>num1</t>
   </si>
   <si>
@@ -73,6 +89,9 @@
     <t>D</t>
   </si>
   <si>
+    <t>ActionDescription</t>
+  </si>
+  <si>
     <t>num2</t>
   </si>
   <si>
@@ -91,6 +110,9 @@
     <t>A</t>
   </si>
   <si>
+    <t>PersonPosition</t>
+  </si>
+  <si>
     <t>num3</t>
   </si>
   <si>
@@ -109,6 +131,9 @@
     <t>B</t>
   </si>
   <si>
+    <t>EnvironmentSetting</t>
+  </si>
+  <si>
     <t>num4</t>
   </si>
   <si>
@@ -127,6 +152,9 @@
     <t>By two o’clock at the earliest</t>
   </si>
   <si>
+    <t>YesNoQuestion</t>
+  </si>
+  <si>
     <t>num5</t>
   </si>
   <si>
@@ -190,6 +218,9 @@
     <t>Where is he now?</t>
   </si>
   <si>
+    <t>WhQuestion</t>
+  </si>
+  <si>
     <t>num9</t>
   </si>
   <si>
@@ -235,6 +266,9 @@
     <t>We have plenty of room</t>
   </si>
   <si>
+    <t>ChoiceQuestion</t>
+  </si>
+  <si>
     <t>num12</t>
   </si>
   <si>
@@ -289,6 +323,19 @@
     <t xml:space="preserve"> How many pens does the man need?</t>
   </si>
   <si>
+    <t>ConversationPurpose</t>
+  </si>
+  <si>
+    <t>Speaker 1:
+How do you like our new brochure? Doesn't it look very nice?
+Speaker 2:
+Yes, it's much better than the old one we used to have. I especially like the pictures. Did we get them done professionally?
+Speaker 1:
+No, and that's what's great about it. John from the sales department is a semi-pro in photography. He took all the pictures for us.
+Speaker 2:
+Wow, he is good. He should have pursued a career in photography. It's really good.</t>
+  </si>
+  <si>
     <t>Why does he need the pens?</t>
   </si>
   <si>
@@ -325,6 +372,15 @@
     <t>It is more expensive than other brands</t>
   </si>
   <si>
+    <t>RelationshipInference</t>
+  </si>
+  <si>
+    <t>Speaker 1: Hello, I got a decent Leather Cleaner from your store a few weeks ago, but when I opened it, the solid formula had melted and it was running down the sides of the container.
+Speaker 2: Oh, I'm very sorry for the inconvenience. It must be a faulty item. So do you want us to replace it with another one? Or do you want a full refund?
+Speaker 1: Instead of the full refund, I'd like to get a new one, of course, with the same brand and same color. I saw some reviews in the paper, and the DaSy cleaner is the most popular for restoring both natural and drag leathers.
+Speaker 2: Thank you for your understanding. Please let me know where to send it, and I'll process the delivery for you as soon as possible.</t>
+  </si>
+  <si>
     <t>How did the woman learn about the item?</t>
   </si>
   <si>
@@ -373,6 +429,15 @@
     <t>To talk about her promotion</t>
   </si>
   <si>
+    <t>DetailComprehension</t>
+  </si>
+  <si>
+    <t>Speaker 1: I take a seat. Rhonda, I have asked you here to discuss the progress of your work in the marketing department.
+Speaker 2: I hope I am doing alright. I really like my job, and the people have been great to me.
+Speaker 1: Yes, I can see that you really like your job here. As you know, it's been three months since you started with us and your probationary period is over, I'd like to offer you a full-time position with our company.
+Speaker 2: That's wonderful. You don't realize how much this means to me.</t>
+  </si>
+  <si>
     <t>How long has Ronda been with the company?</t>
   </si>
   <si>
@@ -421,6 +486,12 @@
     <t>To her office</t>
   </si>
   <si>
+    <t>Speaker 1: Wendy, are you done with your monthly report? The general manager wants it in his office first thing tomorrow morning.
+Speaker 2: I finished writing it up, but I have to read it over to make sure there aren't any errors. I'm going out to lunch now, but I'll read it over in the afternoon.
+Speaker 1: That's great. Could you give it to Mr. Wright's secretary after you are done?
+Speaker 2: No problem. I'll get it to her by the end of the day.</t>
+  </si>
+  <si>
     <t>When will the woman hand in her report?</t>
   </si>
   <si>
@@ -463,6 +534,15 @@
     <t>Sales</t>
   </si>
   <si>
+    <t>EmotionIntention</t>
+  </si>
+  <si>
+    <t>Speaker 1: What did you think of Jason?
+Speaker 2: Well, his background in sales is very impressive and he also seems like a real nice guy. I like him.
+Speaker 1: I agree, I think he may be the guy to lead our sales team. Did you get any feedback from the personnel manager?
+Speaker 2: Yes, he likes him a lot too. Let's go and tell Jason that he got the job.</t>
+  </si>
+  <si>
     <t>What impressed the man about Jason?</t>
   </si>
   <si>
@@ -511,6 +591,13 @@
     <t>To move closer to work</t>
   </si>
   <si>
+    <t xml:space="preserve">Speaker 1: Hey Ron, I heard you got a new job. How is it?
+Speaker 2: I really like it, the staff seems very friendly and the work is not too bad either. However, I am a little concerned about the distance. It's a bit far from my place.
+Speaker 1: Oh, that's too bad. Maybe it's time for you to get a car.
+Speaker 2: I've thought about that, but then there's the hassle of getting a driver's license.
+</t>
+  </si>
+  <si>
     <t>What does the man say he is worried about?</t>
   </si>
   <si>
@@ -526,6 +613,9 @@
     <t>The pay</t>
   </si>
   <si>
+    <t>OutcomePredict</t>
+  </si>
+  <si>
     <t>What does the man say about his new job?</t>
   </si>
   <si>
@@ -559,6 +649,16 @@
     <t>To pick up someone</t>
   </si>
   <si>
+    <t>MainTopicIdentification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker 1: I can't believe the highway is closed.
+Speaker 2: Well, we'd better go around and take College Rd. It takes a bit longer, but it seems like we don't have a choice.
+Speaker 1: If I had known this, I would have made a turn at the last intersection.
+Speaker 2: Don't worry, we still have plenty of time to pick up the client at the bus station.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Where is the conversation taking place?</t>
   </si>
   <si>
@@ -589,6 +689,13 @@
     <t>They made a wrong turn</t>
   </si>
   <si>
+    <t xml:space="preserve">Speaker 1: I can't believe the highway is closed.
+Speaker 2: Well, we'd better go around and take College Rd. It takes a bit longer, but it seems like we don't have a choice.
+Speaker 1: If I had known this, I would have made a turn at the last intersection.
+Speaker 2: Don't worry, we still have plenty of time to pick up the client at the bus station.
+</t>
+  </si>
+  <si>
     <t>num36-37-38</t>
   </si>
   <si>
@@ -604,6 +711,30 @@
     <t>One weekend</t>
   </si>
   <si>
+    <t>DetailExtraction</t>
+  </si>
+  <si>
+    <t>Speaker 1: If you are tired of spending.
+Speaker 2: Your.
+Speaker 1: Weekend lying around on your couch? Why don't you consider booking a room with us?
+Speaker 2: At Travelodge Inn.
+Speaker 1: We.
+Speaker 2: Have the perfect getaway package for people just like yourselves at a price you can afford for a mere 2.
+Speaker 1: $100.
+Speaker 2: You can dip your feet in our Olympic-sized pool, relax in our Whirlpool, and get a good.
+Speaker 1: Workout in our gym that's right for two.
+Speaker 2: $100 you can spend the entire weekend in paradise.
+Speaker 1: And at night, you can stroll.
+Speaker 2: Along the boardwalk, camp by the bonfire.
+Speaker 1: And enjoy some fine dining at.
+Speaker 2: Our.
+Speaker 1: Restaurant so book now this.
+Speaker 2: Special.
+Speaker 1: Offer is.
+Speaker 2: Only available for this.
+Speaker 1: Weekend.</t>
+  </si>
+  <si>
     <t>How much is the special offer?</t>
   </si>
   <si>
@@ -634,9 +765,17 @@
     <t>Buy them a giftIntroduce a new project</t>
   </si>
   <si>
+    <t>Go to bed</t>
+  </si>
+  <si>
     <t>Announce the new manger</t>
   </si>
   <si>
+    <t xml:space="preserve">Speaker 1: I have asked you to gather today to give.
+Speaker 2: You the great news that our team has won this year's sales campaign. As your manager, I cannot help but be excited about this. I just want to say that I am very proud of each and every one of you. You guys really did a wonderful job. Anyway, to celebrate this great occasion, I'm going to treat everyone to a nice dinner at Sophie's restaurant this Friday. We will have dinner, drinks, and talk about everything that happened during this campaign. Also, I will be presenting a cash prize to our team's top salesperson there, number 80.
+</t>
+  </si>
+  <si>
     <t>Why is the speaker excited?</t>
   </si>
   <si>
@@ -652,6 +791,9 @@
     <t>He opened up a new restaurant</t>
   </si>
   <si>
+    <t>SpeakerIntention</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Who most likely is giving the talk?</t>
   </si>
   <si>
@@ -685,6 +827,16 @@
     <t>Fax his resume</t>
   </si>
   <si>
+    <t>ImpliedInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speaker 1: Hi, Mr. Lee, this is Sam Jackson of Harris Financial Services. I am calling in regard to the resume you sent to our company recently. First of all, I would like to thank you for the interest you have shown in the sales manager's position. However, I regret to tell you that the position has been filled. Anyway, the real reason for my call is that we have another opening for a computer programming position. I can see in your resume that you studied computer programming in university and had some experience in that field before moving on to sales.
+Speaker 2: If this position is of any interest to you, please call me at my office during.
+Speaker 1: Regular business hours to set up an interview. Thank you.
+Speaker 2: #70.
+</t>
+  </si>
+  <si>
     <t>What is the main purpose of the call?</t>
   </si>
   <si>
@@ -715,6 +867,13 @@
     <t>Computer programming</t>
   </si>
   <si>
+    <t xml:space="preserve">Speaker 1: Hi, Mr. Lee, this is Sam Jackson of Harris Financial Services. I am calling in regard to the resume you sent to our company recently. First of all, I would like to thank you for the interest you have shown in the sales manager's position. However, I regret to tell you that the position has been filled. Anyway, the real reason for my call is that we have another opening for a computer programming position. I can see in your resume that you studied computer programming in university and had some experience in that field before moving on to sales.
+Speaker 2: If this position is of any interest to you, please call me at my office during.
+Speaker 1: Regular business hours to set up an interview. Thank you.
+Speaker 2: #70.
+</t>
+  </si>
+  <si>
     <t>num45-46-47</t>
   </si>
   <si>
@@ -733,6 +892,17 @@
     <t>In sixty minutes</t>
   </si>
   <si>
+    <t xml:space="preserve">Speaker 1: Hello everyone, this is Arthur Chang with the morning traffic.
+Speaker 2: Report here on FM One O 4.
+Speaker 1: The road conditions in most parts of the city look good, except for a minor accident to report.
+Speaker 2: On Hwy. 4 O one.
+Speaker 1: Westbound near the Mayfield St. exit ramp, a collision involving 2 vehicles is being cleared now and the police have told us that the traffic should be back to normal within the next few minutes. I'll be back in half an hour with another traffic report.
+Speaker 2: Here at FM One O 4.
+Speaker 1: #70.
+Speaker 2: 4.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve"> How many vehicles are involved in the accident?</t>
   </si>
   <si>
@@ -748,6 +918,9 @@
     <t>Five</t>
   </si>
   <si>
+    <t>ContextRecognition</t>
+  </si>
+  <si>
     <t xml:space="preserve"> In which part of the day is the report being aired?</t>
   </si>
   <si>
@@ -781,6 +954,20 @@
     <t>24 hours before her appointment</t>
   </si>
   <si>
+    <t xml:space="preserve">Speaker 1: Hi, this is a message from Miss Helen Kim. Miss Kim, this is your dentist's office calling to.
+Speaker 2: Remind you about your appointment with?
+Speaker 1: Doctor White on Thursday at 11. AMI can see in.
+Speaker 2: My appointment book.
+Speaker 1: That you are scheduled for a cleaning that day anyway, I'd like to remind you at this time that you need to arrive at least 10 minutes early to fill out some information.
+Speaker 2: If by any chance?
+Speaker 1: You can not make.
+Speaker 2: It to your appointment.
+Speaker 1: Please let us know at least two hours.
+Speaker 2: Before your appointment.
+Speaker 1: Have a nice day and we will see you this Thursday.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve"> What does the speaker remind Ms. Kim to do?</t>
   </si>
   <si>
@@ -829,6 +1016,9 @@
     <t>significantly</t>
   </si>
   <si>
+    <t>VocabularyFill</t>
+  </si>
+  <si>
     <t>Rosewater Medical Center employs healthcare -------- affiliated with Huron University.</t>
   </si>
   <si>
@@ -886,6 +1076,9 @@
     <t>safely</t>
   </si>
   <si>
+    <t>PrepositionChoice</t>
+  </si>
+  <si>
     <t>Ms. Fenwick not only composed the report -------- produced the visual aids which were so useful during then meeting.</t>
   </si>
   <si>
@@ -916,6 +1109,9 @@
     <t>detailing</t>
   </si>
   <si>
+    <t>TenseUsage</t>
+  </si>
+  <si>
     <t>All future team meetings will be -------- in room 414 at noon on the first Wednesday of every month.</t>
   </si>
   <si>
@@ -961,6 +1157,9 @@
     <t>Neither</t>
   </si>
   <si>
+    <t>GrammarStructure</t>
+  </si>
+  <si>
     <t>The use of the -------- possible lighting in the laboratory has been beneficial to the research conducted by the botanists employed there.</t>
   </si>
   <si>
@@ -1004,6 +1203,9 @@
   </si>
   <si>
     <t>yet</t>
+  </si>
+  <si>
+    <t>VerbFormSelection</t>
   </si>
   <si>
     <t>The invoice -------- was received two days ago is inaccurate and a new one must be requested.</t>
@@ -1042,6 +1244,9 @@
     <t>likely</t>
   </si>
   <si>
+    <t>VocabularyInsertion</t>
+  </si>
+  <si>
     <t>would have agreed</t>
   </si>
   <si>
@@ -1064,6 +1269,9 @@
   </si>
   <si>
     <t>Even though</t>
+  </si>
+  <si>
+    <t>LogicalCompletion</t>
   </si>
   <si>
     <t>AirVoyage’s spokesperson Bob Lohman announced this morning that a short-term (68)........ of the company’s online reservation system was responsible for several delays yesterday.
@@ -1083,6 +1291,9 @@
     <t>select</t>
   </si>
   <si>
+    <t>TextCoherence</t>
+  </si>
+  <si>
     <t>is caused</t>
   </si>
   <si>
@@ -1093,6 +1304,9 @@
   </si>
   <si>
     <t>was caused</t>
+  </si>
+  <si>
+    <t>SentenceRelationship</t>
   </si>
   <si>
     <t>failure</t>
@@ -1199,6 +1413,9 @@
     <t>It gives financial advice.</t>
   </si>
   <si>
+    <t>MainIdea</t>
+  </si>
+  <si>
     <t>Which of the following is TRUE about Brooks Brothers Marketing?</t>
   </si>
   <si>
@@ -1214,6 +1431,9 @@
     <t>It is a start-up company.</t>
   </si>
   <si>
+    <t>DetailInformation</t>
+  </si>
+  <si>
     <t>What is the purpose of the e-mail?</t>
   </si>
   <si>
@@ -1229,6 +1449,12 @@
     <t>To respond to a service charge</t>
   </si>
   <si>
+    <t>WordInference</t>
+  </si>
+  <si>
+    <t>AuthorPerspective</t>
+  </si>
+  <si>
     <t>What happened at Brooks Brothers Marketing in July?</t>
   </si>
   <si>
@@ -1242,6 +1468,9 @@
   </si>
   <si>
     <t>It relocated its headquarters to a different place.</t>
+  </si>
+  <si>
+    <t>ComparativeAnalysis</t>
   </si>
   <si>
     <r>
@@ -1250,7 +1479,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Passage 1:
@@ -1264,7 +1493,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1281,7 +1510,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Passage 2:</t>
@@ -1291,7 +1520,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1322,6 +1551,9 @@
     <t>Photographs of furniture</t>
   </si>
   <si>
+    <t>InformationRelationship</t>
+  </si>
+  <si>
     <t>In the second e-mail, the word “concerns” in paragraph 1, line 2 is closest in meaning to</t>
   </si>
   <si>
@@ -1387,7 +1619,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Passage 1:
@@ -1397,7 +1629,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1417,7 +1649,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Passage 2:
@@ -1427,7 +1659,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1517,7 +1749,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Arabian Business Weekly</t>
@@ -1527,7 +1759,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1540,7 +1772,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Eli Finance Awarded the Best Financial Services Company in the UAE</t>
@@ -1550,7 +1782,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1609,7 +1841,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>From: Rachel
@@ -1620,7 +1852,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1671,7 +1903,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Richview District Library</t>
@@ -1681,7 +1913,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1697,7 +1929,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Hours</t>
@@ -1707,7 +1939,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1776,7 +2008,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Exciting and Relaxing Waterborne Travel Option
@@ -1787,7 +2019,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
@@ -1874,153 +2106,158 @@
   <si>
     <t>9.Dec</t>
   </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>ActionDescription</t>
-  </si>
-  <si>
-    <t>PersonPosition</t>
-  </si>
-  <si>
-    <t>EnvironmentSetting</t>
-  </si>
-  <si>
-    <t>YesNoQuestion</t>
-  </si>
-  <si>
-    <t>WhQuestion</t>
-  </si>
-  <si>
-    <t>ChoiceQuestion</t>
-  </si>
-  <si>
-    <t>ConversationPurpose</t>
-  </si>
-  <si>
-    <t>RelationshipInference</t>
-  </si>
-  <si>
-    <t>DetailComprehension</t>
-  </si>
-  <si>
-    <t>EmotionIntention</t>
-  </si>
-  <si>
-    <t>OutcomePredict</t>
-  </si>
-  <si>
-    <t>MainTopicIdentification</t>
-  </si>
-  <si>
-    <t>DetailExtraction</t>
-  </si>
-  <si>
-    <t>SpeakerIntention</t>
-  </si>
-  <si>
-    <t>ImpliedInformation</t>
-  </si>
-  <si>
-    <t>ContextRecognition</t>
-  </si>
-  <si>
-    <t>VocabularyFill</t>
-  </si>
-  <si>
-    <t>PrepositionChoice</t>
-  </si>
-  <si>
-    <t>TenseUsage</t>
-  </si>
-  <si>
-    <t>GrammarStructure</t>
-  </si>
-  <si>
-    <t>VerbFormSelection</t>
-  </si>
-  <si>
-    <t>VocabularyInsertion</t>
-  </si>
-  <si>
-    <t>LogicalCompletion</t>
-  </si>
-  <si>
-    <t>TextCoherence</t>
-  </si>
-  <si>
-    <t>SentenceRelationship</t>
-  </si>
-  <si>
-    <t>MainIdea</t>
-  </si>
-  <si>
-    <t>DetailInformation</t>
-  </si>
-  <si>
-    <t>WordInference</t>
-  </si>
-  <si>
-    <t>AuthorPerspective</t>
-  </si>
-  <si>
-    <t>ComparativeAnalysis</t>
-  </si>
-  <si>
-    <t>InformationRelationship</t>
-  </si>
-  <si>
-    <t>transcript</t>
-  </si>
-  <si>
-    <t>Speaker 1:
-How do you like our new brochure? Doesn't it look very nice?
-Speaker 2:
-Yes, it's much better than the old one we used to have. I especially like the pictures. Did we get them done professionally?
-Speaker 1:
-No, and that's what's great about it. John from the sales department is a semi-pro in photography. He took all the pictures for us.
-Speaker 2:
-Wow, he is good. He should have pursued a career in photography. It's really good.</t>
-  </si>
-  <si>
-    <t>Speaker 1: Hello, I got a decent Leather Cleaner from your store a few weeks ago, but when I opened it, the solid formula had melted and it was running down the sides of the container.
-Speaker 2: Oh, I'm very sorry for the inconvenience. It must be a faulty item. So do you want us to replace it with another one? Or do you want a full refund?
-Speaker 1: Instead of the full refund, I'd like to get a new one, of course, with the same brand and same color. I saw some reviews in the paper, and the DaSy cleaner is the most popular for restoring both natural and drag leathers.
-Speaker 2: Thank you for your understanding. Please let me know where to send it, and I'll process the delivery for you as soon as possible.</t>
-  </si>
-  <si>
-    <t>Speaker 1: Wendy, are you done with your monthly report? The general manager wants it in his office first thing tomorrow morning.
-Speaker 2: I finished writing it up, but I have to read it over to make sure there aren't any errors. I'm going out to lunch now, but I'll read it over in the afternoon.
-Speaker 1: That's great. Could you give it to Mr. Wright's secretary after you are done?
-Speaker 2: No problem. I'll get it to her by the end of the day.</t>
-  </si>
-  <si>
-    <t>Speaker 1: I take a seat. Rhonda, I have asked you here to discuss the progress of your work in the marketing department.
-Speaker 2: I hope I am doing alright. I really like my job, and the people have been great to me.
-Speaker 1: Yes, I can see that you really like your job here. As you know, it's been three months since you started with us and your probationary period is over, I'd like to offer you a full-time position with our company.
-Speaker 2: That's wonderful. You don't realize how much this means to me.</t>
-  </si>
-  <si>
-    <t>Go to bed</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAA9BF5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2028,44 +2265,61 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF222222"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFAA9BF5"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2078,8 +2332,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2089,25 +2529,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -2118,19 +2558,275 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2139,33 +2835,66 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2452,32 +3181,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="47.625" customWidth="1"/>
-    <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="2" max="2" width="7.37142857142857" customWidth="1"/>
+    <col min="3" max="3" width="13.3714285714286" customWidth="1"/>
+    <col min="4" max="4" width="12.247619047619" customWidth="1"/>
+    <col min="5" max="5" width="47.6285714285714" customWidth="1"/>
+    <col min="6" max="6" width="16.6285714285714" customWidth="1"/>
+    <col min="7" max="7" width="16.1238095238095" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="20.875" customWidth="1"/>
-    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="20.8761904761905" customWidth="1"/>
+    <col min="10" max="10" width="14.247619047619" customWidth="1"/>
+    <col min="12" max="12" width="25.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="56.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.3" x14ac:dyDescent="0.3">
+    <row r="1" ht="15.75" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2508,487 +3239,487 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
-      <c r="L9" s="11" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L9" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L12" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>2</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
-      <c r="L14" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="L15" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" ht="409.5" spans="1:13">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
@@ -3003,66 +3734,66 @@
         <v>400</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>3</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="L16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" ht="409.5" spans="1:13">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="L17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" ht="409.5" spans="1:13">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F18" s="3">
         <v>20</v>
@@ -3077,704 +3808,734 @@
         <v>140</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>3</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>516</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="L18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" ht="409.5" spans="1:13">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>517</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" ht="409.5" spans="1:13">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>517</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" ht="409.5" spans="1:13">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>517</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" ht="409.5" spans="1:13">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="L22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" ht="409.5" spans="1:13">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K23">
         <v>3</v>
       </c>
-      <c r="L23" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="L23" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" ht="409.5" spans="1:13">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
-      <c r="L24" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="L24" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" ht="409.5" spans="1:13">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K25">
         <v>3</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="L25" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" ht="409.5" spans="1:13">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
-      <c r="L26" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="L26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" ht="180" spans="1:13">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K27">
         <v>3</v>
       </c>
-      <c r="L27" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L27" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" ht="150" spans="1:13">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K28">
         <v>3</v>
       </c>
-      <c r="L28" s="11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" ht="150" spans="1:13">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K29">
         <v>3</v>
       </c>
-      <c r="L29" s="11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L29" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" ht="150" spans="1:13">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K30">
         <v>3</v>
       </c>
-      <c r="L30" s="11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L30" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" ht="195" spans="1:13">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K31">
         <v>3</v>
       </c>
-      <c r="L31" s="11" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" ht="195" spans="1:13">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K32">
         <v>3</v>
       </c>
-      <c r="L32" s="11" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" ht="195" spans="1:13">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K33">
         <v>3</v>
       </c>
-      <c r="L33" s="11" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" ht="150" spans="1:13">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K34">
         <v>4</v>
       </c>
-      <c r="L34" s="11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" ht="150" spans="1:13">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>4</v>
       </c>
-      <c r="L35" s="11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" ht="180" spans="1:13">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K36">
         <v>4</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" ht="409.5" spans="1:13">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K37">
         <v>4</v>
       </c>
-      <c r="L37" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" ht="409.5" spans="1:13">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="F38" s="3">
         <v>100</v>
@@ -3789,492 +4550,534 @@
         <v>400</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K38">
         <v>4</v>
       </c>
-      <c r="L38" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" ht="409.5" spans="1:13">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K39">
         <v>4</v>
       </c>
-      <c r="L39" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" ht="195" spans="1:13">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>546</v>
+        <v>229</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K40">
         <v>4</v>
       </c>
-      <c r="L40" s="11" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" ht="195" spans="1:13">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K41">
         <v>4</v>
       </c>
-      <c r="L41" s="11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" ht="195" spans="1:13">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K42">
         <v>4</v>
       </c>
-      <c r="L42" s="11" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" ht="300" spans="1:13">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K43">
         <v>4</v>
       </c>
-      <c r="L43" s="11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L43" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" ht="300" spans="1:13">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K44">
         <v>4</v>
       </c>
-      <c r="L44" s="11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L44" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" ht="285" spans="1:13">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K45">
         <v>4</v>
       </c>
-      <c r="L45" s="11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L45" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" ht="345" spans="1:13">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K46">
         <v>4</v>
       </c>
-      <c r="L46" s="11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L46" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" ht="345" spans="1:13">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K47">
         <v>4</v>
       </c>
-      <c r="L47" s="11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L47" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" ht="345" spans="1:13">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K48">
         <v>4</v>
       </c>
-      <c r="L48" s="11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L48" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" ht="390" spans="1:13">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K49">
         <v>4</v>
       </c>
-      <c r="L49" s="11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L49" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" ht="390" spans="1:13">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K50">
         <v>4</v>
       </c>
-      <c r="L50" s="11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L50" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" ht="390" spans="1:13">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K51">
         <v>4</v>
       </c>
-      <c r="L51" s="11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L51" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K52">
         <v>5</v>
       </c>
-      <c r="L52" s="11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4282,31 +5085,31 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K53">
         <v>5</v>
       </c>
-      <c r="L53" s="11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L53" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4314,31 +5117,31 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K54">
         <v>5</v>
       </c>
-      <c r="L54" s="11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L54" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4346,31 +5149,31 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>5</v>
       </c>
-      <c r="L55" s="11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L55" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4378,31 +5181,31 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K56">
         <v>5</v>
       </c>
-      <c r="L56" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L56" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4410,31 +5213,31 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K57">
         <v>5</v>
       </c>
-      <c r="L57" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L57" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4442,31 +5245,31 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K58">
         <v>5</v>
       </c>
-      <c r="L58" s="11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L58" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4474,31 +5277,31 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K59">
         <v>5</v>
       </c>
-      <c r="L59" s="11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L59" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4506,31 +5309,31 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K60">
         <v>5</v>
       </c>
-      <c r="L60" s="11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L60" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4538,31 +5341,31 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K61">
         <v>5</v>
       </c>
-      <c r="L61" s="11" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L61" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4570,31 +5373,31 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K62">
         <v>5</v>
       </c>
-      <c r="L62" s="11" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L62" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4602,31 +5405,31 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K63">
         <v>5</v>
       </c>
-      <c r="L63" s="11" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L63" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4634,31 +5437,31 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>5</v>
       </c>
-      <c r="L64" s="11" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L64" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4666,65 +5469,65 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K65">
         <v>5</v>
       </c>
-      <c r="L65" s="11" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="104.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L65" s="6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="66" ht="104.95" customHeight="1" spans="1:12">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="4" t="s">
-        <v>333</v>
+      <c r="D66" s="10" t="s">
+        <v>372</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K66">
         <v>6</v>
       </c>
-      <c r="L66" s="11" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L66" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4733,28 +5536,28 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K67">
         <v>6</v>
       </c>
-      <c r="L67" s="11" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L67" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4763,60 +5566,60 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K68">
         <v>6</v>
       </c>
-      <c r="L68" s="11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="123.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L68" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="69" ht="123.8" customHeight="1" spans="1:12">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="4" t="s">
-        <v>347</v>
+      <c r="D69" s="10" t="s">
+        <v>388</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K69">
         <v>6</v>
       </c>
-      <c r="L69" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L69" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4825,28 +5628,28 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K70">
         <v>6</v>
       </c>
-      <c r="L70" s="11" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L70" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4855,60 +5658,60 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K71">
         <v>6</v>
       </c>
-      <c r="L71" s="11" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="131.30000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L71" s="6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" ht="131.3" customHeight="1" spans="1:12">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="4" t="s">
-        <v>360</v>
+      <c r="D72" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K72">
         <v>6</v>
       </c>
-      <c r="L72" s="11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L72" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4917,28 +5720,28 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>6</v>
       </c>
-      <c r="L73" s="11" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L73" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4947,62 +5750,62 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K74">
         <v>6</v>
       </c>
-      <c r="L74" s="11" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+      <c r="L74" s="6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="75" ht="97.5" customHeight="1" spans="1:12">
+      <c r="A75" s="11">
         <v>74</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="I75" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>28</v>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="K75">
         <v>7</v>
       </c>
-      <c r="L75" s="11" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L75" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5010,31 +5813,31 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K76">
         <v>7</v>
       </c>
-      <c r="L76" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L76" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5042,31 +5845,31 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K77">
         <v>7</v>
       </c>
-      <c r="L77" s="11" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L77" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -5074,31 +5877,31 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K78">
         <v>7</v>
       </c>
-      <c r="L78" s="11" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L78" s="6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -5106,65 +5909,65 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K79">
         <v>7</v>
       </c>
-      <c r="L79" s="11" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="102.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+      <c r="L79" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" ht="102.1" customHeight="1" spans="1:12">
+      <c r="A80" s="11">
         <v>79</v>
       </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="I80" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>16</v>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="J80" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="K80">
         <v>7</v>
       </c>
-      <c r="L80" s="11" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L80" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5172,31 +5975,31 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K81">
         <v>7</v>
       </c>
-      <c r="L81" s="11" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L81" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5204,31 +6007,31 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>7</v>
       </c>
-      <c r="L82" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L82" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5236,31 +6039,31 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>412</v>
+        <v>457</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>461</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K83">
         <v>7</v>
       </c>
-      <c r="L83" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L83" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5268,65 +6071,65 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K84">
         <v>7</v>
       </c>
-      <c r="L84" s="11" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="99.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
+      <c r="L84" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="85" ht="99.7" customHeight="1" spans="1:12">
+      <c r="A85" s="14">
         <v>84</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>28</v>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="I85" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="J85" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="K85">
         <v>7</v>
       </c>
-      <c r="L85" s="11" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L85" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5334,31 +6137,31 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>7</v>
       </c>
-      <c r="L86" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L86" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5366,31 +6169,31 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K87">
         <v>7</v>
       </c>
-      <c r="L87" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L87" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5398,31 +6201,31 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K88">
         <v>7</v>
       </c>
-      <c r="L88" s="11" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L88" s="6" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5430,65 +6233,65 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K89">
         <v>7</v>
       </c>
-      <c r="L89" s="11" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+      <c r="L89" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="90" ht="93.75" customHeight="1" spans="1:12">
+      <c r="A90" s="11">
         <v>89</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="G90" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="I90" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>16</v>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="J90" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="K90">
         <v>7</v>
       </c>
-      <c r="L90" s="11" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L90" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5496,31 +6299,31 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K91">
         <v>7</v>
       </c>
-      <c r="L91" s="11" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L91" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5528,65 +6331,65 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K92">
         <v>7</v>
       </c>
-      <c r="L92" s="11" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="72.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+      <c r="L92" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="93" ht="72.7" customHeight="1" spans="1:12">
+      <c r="A93" s="11">
         <v>92</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>40</v>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="G93" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="K93">
         <v>7</v>
       </c>
-      <c r="L93" s="11" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L93" s="6" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5594,65 +6397,65 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>469</v>
+        <v>514</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>518</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K94">
         <v>7</v>
       </c>
-      <c r="L94" s="11" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="99.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+      <c r="L94" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="95" ht="99.7" customHeight="1" spans="1:12">
+      <c r="A95" s="11">
         <v>94</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="I95" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="J95" s="5" t="s">
-        <v>40</v>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="H95" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="K95">
         <v>7</v>
       </c>
-      <c r="L95" s="11" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L95" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5660,31 +6463,31 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K96">
         <v>7</v>
       </c>
-      <c r="L96" s="11" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L96" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5692,65 +6495,65 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="K97">
         <v>7</v>
       </c>
-      <c r="L97" s="11" t="s">
+      <c r="L97" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="98" ht="86.3" customHeight="1" spans="1:12">
+      <c r="A98" s="11">
+        <v>97</v>
+      </c>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="G98" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="H98" s="11" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="86.3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
-        <v>97</v>
-      </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="I98" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="J98" s="5" t="s">
-        <v>16</v>
+      <c r="I98" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="K98">
         <v>7</v>
       </c>
-      <c r="L98" s="11" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L98" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5758,65 +6561,65 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K99">
         <v>7</v>
       </c>
-      <c r="L99" s="11" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="107.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+      <c r="L99" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="100" ht="107.35" customHeight="1" spans="1:12">
+      <c r="A100" s="11">
         <v>99</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="I100" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="J100" s="5" t="s">
-        <v>16</v>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="K100">
         <v>7</v>
       </c>
-      <c r="L100" s="11" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L100" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5824,31 +6627,32 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>507</v>
+        <v>552</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>556</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K101">
         <v>7</v>
       </c>
-      <c r="L101" s="11" t="s">
-        <v>539</v>
+      <c r="L101" s="6" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/server/src/uploads/excels/414128/exam.1.mini-test1.xlsx
+++ b/server/src/uploads/excels/414128/exam.1.mini-test1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Project\toeic_prep\server\src\uploads\excels\414128\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997017C4-524E-472C-98F9-271368467FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="18285"/>
+    <workbookView xWindow="25974" yWindow="-163" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="557">
   <si>
     <t>number</t>
   </si>
@@ -2110,15 +2116,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2153,157 +2155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2319,7 +2170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2332,194 +2183,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2562,253 +2227,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2824,9 +2247,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2840,61 +2260,17 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3181,34 +2557,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
   <cols>
-    <col min="2" max="2" width="7.37142857142857" customWidth="1"/>
-    <col min="3" max="3" width="13.3714285714286" customWidth="1"/>
-    <col min="4" max="4" width="12.247619047619" customWidth="1"/>
-    <col min="5" max="5" width="47.6285714285714" customWidth="1"/>
-    <col min="6" max="6" width="16.6285714285714" customWidth="1"/>
-    <col min="7" max="7" width="16.1238095238095" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="47.625" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="20.8761904761905" customWidth="1"/>
-    <col min="10" max="10" width="14.247619047619" customWidth="1"/>
-    <col min="12" max="12" width="25.1428571428571" customWidth="1"/>
-    <col min="13" max="13" width="56.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
+    <col min="10" max="10" width="14.25" customWidth="1"/>
+    <col min="12" max="12" width="25.125" customWidth="1"/>
+    <col min="13" max="13" width="56.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:13">
+    <row r="1" spans="1:13" ht="16.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3249,7 +2625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3285,7 +2661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3319,7 +2695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3353,7 +2729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3387,7 +2763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3419,7 +2795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3451,7 +2827,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3483,7 +2859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3515,7 +2891,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3547,7 +2923,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3579,7 +2955,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3611,7 +2987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3643,7 +3019,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3675,7 +3051,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3707,7 +3083,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" ht="409.5" spans="1:13">
+    <row r="16" spans="1:13" ht="171.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3746,7 +3122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" ht="409.5" spans="1:13">
+    <row r="17" spans="1:13" ht="171.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3783,7 +3159,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" ht="409.5" spans="1:13">
+    <row r="18" spans="1:13" ht="171.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3820,7 +3196,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" ht="409.5" spans="1:13">
+    <row r="19" spans="1:13" ht="228.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3857,7 +3233,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" ht="409.5" spans="1:13">
+    <row r="20" spans="1:13" ht="228.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3894,7 +3270,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" ht="409.5" spans="1:13">
+    <row r="21" spans="1:13" ht="228.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3931,7 +3307,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" ht="409.5" spans="1:13">
+    <row r="22" spans="1:13" ht="185.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3968,7 +3344,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" ht="409.5" spans="1:13">
+    <row r="23" spans="1:13" ht="185.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4005,7 +3381,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" ht="409.5" spans="1:13">
+    <row r="24" spans="1:13" ht="185.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4042,7 +3418,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" ht="409.5" spans="1:13">
+    <row r="25" spans="1:13" ht="171.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4079,7 +3455,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" ht="409.5" spans="1:13">
+    <row r="26" spans="1:13" ht="171.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4116,7 +3492,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" ht="180" spans="1:13">
+    <row r="27" spans="1:13" ht="171.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4153,7 +3529,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" ht="150" spans="1:13">
+    <row r="28" spans="1:13" ht="142.65">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4186,11 +3562,11 @@
       <c r="L28" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="29" ht="150" spans="1:13">
+    <row r="29" spans="1:13" ht="142.65">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4223,11 +3599,11 @@
       <c r="L29" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" ht="150" spans="1:13">
+    <row r="30" spans="1:13" ht="142.65">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4260,11 +3636,11 @@
       <c r="L30" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="31" ht="195" spans="1:13">
+    <row r="31" spans="1:13" ht="171.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4297,11 +3673,11 @@
       <c r="L31" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" ht="195" spans="1:13">
+    <row r="32" spans="1:13" ht="171.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4334,11 +3710,11 @@
       <c r="L32" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M32" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" ht="195" spans="1:13">
+    <row r="33" spans="1:13" ht="171.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4371,11 +3747,11 @@
       <c r="L33" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="M33" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" ht="150" spans="1:13">
+    <row r="34" spans="1:13" ht="142.65">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4383,7 +3759,9 @@
       <c r="C34" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="E34" s="1" t="s">
         <v>194</v>
       </c>
@@ -4408,18 +3786,16 @@
       <c r="L34" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="M34" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="35" ht="150" spans="1:13">
+    <row r="35" spans="1:13" ht="142.65">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>201</v>
@@ -4445,18 +3821,16 @@
       <c r="L35" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="36" ht="180" spans="1:13">
+    <row r="36" spans="1:13" ht="171.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>206</v>
@@ -4482,11 +3856,11 @@
       <c r="L36" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="7" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="37" ht="409.5" spans="1:13">
+    <row r="37" spans="1:13" ht="409.6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4494,9 +3868,7 @@
       <c r="C37" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>214</v>
       </c>
@@ -4521,18 +3893,16 @@
       <c r="L37" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="M37" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="38" ht="409.5" spans="1:13">
+    <row r="38" spans="1:13" ht="409.6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
         <v>219</v>
@@ -4558,18 +3928,16 @@
       <c r="L38" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="M38" s="9" t="s">
+      <c r="M38" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="39" ht="409.5" spans="1:13">
+    <row r="39" spans="1:13" ht="409.6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
         <v>220</v>
@@ -4595,11 +3963,11 @@
       <c r="L39" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="M39" s="9" t="s">
+      <c r="M39" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="40" ht="195" spans="1:13">
+    <row r="40" spans="1:13" ht="185.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4632,18 +4000,16 @@
       <c r="L40" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="M40" s="9" t="s">
+      <c r="M40" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="41" ht="195" spans="1:13">
+    <row r="41" spans="1:13" ht="185.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
         <v>232</v>
@@ -4669,18 +4035,16 @@
       <c r="L41" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="M41" s="9" t="s">
+      <c r="M41" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="42" ht="195" spans="1:13">
+    <row r="42" spans="1:13" ht="185.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>225</v>
-      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
         <v>238</v>
@@ -4706,11 +4070,11 @@
       <c r="L42" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="M42" s="9" t="s">
+      <c r="M42" s="7" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="43" ht="300" spans="1:13">
+    <row r="43" spans="1:13" ht="271.05">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4743,18 +4107,16 @@
       <c r="L43" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="M43" s="9" t="s">
+      <c r="M43" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="44" ht="300" spans="1:13">
+    <row r="44" spans="1:13" ht="271.05">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
         <v>251</v>
@@ -4780,18 +4142,16 @@
       <c r="L44" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="M44" s="9" t="s">
+      <c r="M44" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="45" ht="285" spans="1:13">
+    <row r="45" spans="1:13" ht="256.75">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
         <v>256</v>
@@ -4817,11 +4177,11 @@
       <c r="L45" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="M45" s="9" t="s">
+      <c r="M45" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="46" ht="345" spans="1:13">
+    <row r="46" spans="1:13" ht="313.85000000000002">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4854,18 +4214,16 @@
       <c r="L46" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="M46" s="9" t="s">
+      <c r="M46" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="47" ht="345" spans="1:13">
+    <row r="47" spans="1:13" ht="313.85000000000002">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>262</v>
-      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
         <v>269</v>
@@ -4891,18 +4249,16 @@
       <c r="L47" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="M47" s="9" t="s">
+      <c r="M47" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="48" ht="345" spans="1:13">
+    <row r="48" spans="1:13" ht="313.85000000000002">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>262</v>
-      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
         <v>275</v>
@@ -4928,11 +4284,11 @@
       <c r="L48" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="M48" s="9" t="s">
+      <c r="M48" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="49" ht="390" spans="1:13">
+    <row r="49" spans="1:13" ht="370.9">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4965,18 +4321,16 @@
       <c r="L49" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="M49" s="9" t="s">
+      <c r="M49" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="50" ht="390" spans="1:13">
+    <row r="50" spans="1:13" ht="370.9">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>280</v>
-      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
         <v>287</v>
@@ -5002,18 +4356,16 @@
       <c r="L50" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="M50" s="9" t="s">
+      <c r="M50" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="51" ht="390" spans="1:13">
+    <row r="51" spans="1:13" ht="370.9">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>280</v>
-      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
         <v>292</v>
@@ -5039,11 +4391,11 @@
       <c r="L51" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="M51" s="9" t="s">
+      <c r="M51" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5077,7 +4429,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5109,7 +4461,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5141,7 +4493,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5173,7 +4525,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5205,7 +4557,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5237,7 +4589,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5269,7 +4621,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5301,7 +4653,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5333,7 +4685,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5365,7 +4717,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5397,7 +4749,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5429,7 +4781,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5493,13 +4845,13 @@
         <v>366</v>
       </c>
     </row>
-    <row r="66" ht="104.95" customHeight="1" spans="1:12">
+    <row r="66" spans="1:12" ht="104.95" customHeight="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>372</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -5587,13 +4939,13 @@
         <v>387</v>
       </c>
     </row>
-    <row r="69" ht="123.8" customHeight="1" spans="1:12">
+    <row r="69" spans="1:12" ht="123.8" customHeight="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>388</v>
       </c>
       <c r="E69" s="1"/>
@@ -5679,13 +5031,13 @@
         <v>378</v>
       </c>
     </row>
-    <row r="72" ht="131.3" customHeight="1" spans="1:12">
+    <row r="72" spans="1:12" ht="131.30000000000001" customHeight="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>403</v>
       </c>
       <c r="E72" s="1"/>
@@ -5771,31 +5123,31 @@
         <v>393</v>
       </c>
     </row>
-    <row r="75" ht="97.5" customHeight="1" spans="1:12">
-      <c r="A75" s="11">
+    <row r="75" spans="1:12" ht="97.5" customHeight="1">
+      <c r="A75" s="10">
         <v>74</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="12" t="s">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="F75" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="G75" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="H75" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="I75" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="J75" s="10" t="s">
         <v>33</v>
       </c>
       <c r="K75">
@@ -5933,31 +5285,31 @@
         <v>439</v>
       </c>
     </row>
-    <row r="80" ht="102.1" customHeight="1" spans="1:12">
-      <c r="A80" s="11">
+    <row r="80" spans="1:12" ht="102.1" customHeight="1">
+      <c r="A80" s="10">
         <v>79</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="12" t="s">
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="F80" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="G80" s="10" t="s">
         <v>443</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="H80" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="I80" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="J80" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K80">
@@ -6041,16 +5393,16 @@
       <c r="E83" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="F83" s="13" t="s">
+      <c r="F83" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="G83" s="13" t="s">
+      <c r="G83" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="H83" s="13" t="s">
+      <c r="H83" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="I83" s="13" t="s">
+      <c r="I83" s="12" t="s">
         <v>461</v>
       </c>
       <c r="J83" s="1" t="s">
@@ -6095,31 +5447,31 @@
         <v>420</v>
       </c>
     </row>
-    <row r="85" ht="99.7" customHeight="1" spans="1:12">
-      <c r="A85" s="14">
+    <row r="85" spans="1:12" ht="99.7" customHeight="1">
+      <c r="A85" s="13">
         <v>84</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="15" t="s">
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14" t="s">
         <v>467</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="F85" s="14" t="s">
+      <c r="F85" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="G85" s="14" t="s">
+      <c r="G85" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="H85" s="14" t="s">
+      <c r="H85" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="I85" s="14" t="s">
+      <c r="I85" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="J85" s="14" t="s">
+      <c r="J85" s="13" t="s">
         <v>33</v>
       </c>
       <c r="K85">
@@ -6257,31 +5609,31 @@
         <v>432</v>
       </c>
     </row>
-    <row r="90" ht="93.75" customHeight="1" spans="1:12">
-      <c r="A90" s="11">
+    <row r="90" spans="1:12" ht="93.75" customHeight="1">
+      <c r="A90" s="10">
         <v>89</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="12" t="s">
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="F90" s="11" t="s">
+      <c r="F90" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="G90" s="11" t="s">
+      <c r="G90" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="H90" s="11" t="s">
+      <c r="H90" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="I90" s="11" t="s">
+      <c r="I90" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="J90" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K90">
@@ -6355,31 +5707,31 @@
         <v>432</v>
       </c>
     </row>
-    <row r="93" ht="72.7" customHeight="1" spans="1:12">
-      <c r="A93" s="11">
+    <row r="93" spans="1:12" ht="72.7" customHeight="1">
+      <c r="A93" s="10">
         <v>92</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="12" t="s">
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="F93" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="G93" s="11" t="s">
+      <c r="G93" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="H93" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="I93" s="11" t="s">
+      <c r="I93" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="J93" s="10" t="s">
         <v>47</v>
       </c>
       <c r="K93">
@@ -6399,16 +5751,16 @@
       <c r="E94" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="F94" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="G94" s="13" t="s">
+      <c r="G94" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="H94" s="13" t="s">
+      <c r="H94" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="I94" s="13" t="s">
+      <c r="I94" s="12" t="s">
         <v>518</v>
       </c>
       <c r="J94" s="1" t="s">
@@ -6421,31 +5773,31 @@
         <v>439</v>
       </c>
     </row>
-    <row r="95" ht="99.7" customHeight="1" spans="1:12">
-      <c r="A95" s="11">
+    <row r="95" spans="1:12" ht="99.7" customHeight="1">
+      <c r="A95" s="10">
         <v>94</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="12" t="s">
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="F95" s="11" t="s">
+      <c r="F95" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="G95" s="11" t="s">
+      <c r="G95" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="H95" s="11" t="s">
+      <c r="H95" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="I95" s="11" t="s">
+      <c r="I95" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="J95" s="11" t="s">
+      <c r="J95" s="10" t="s">
         <v>47</v>
       </c>
       <c r="K95">
@@ -6519,31 +5871,31 @@
         <v>439</v>
       </c>
     </row>
-    <row r="98" ht="86.3" customHeight="1" spans="1:12">
-      <c r="A98" s="11">
+    <row r="98" spans="1:12" ht="86.3" customHeight="1">
+      <c r="A98" s="10">
         <v>97</v>
       </c>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="12" t="s">
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="E98" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="F98" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="G98" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="H98" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="I98" s="11" t="s">
+      <c r="I98" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="J98" s="11" t="s">
+      <c r="J98" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K98">
@@ -6585,31 +5937,31 @@
         <v>446</v>
       </c>
     </row>
-    <row r="100" ht="107.35" customHeight="1" spans="1:12">
-      <c r="A100" s="11">
+    <row r="100" spans="1:12" ht="107.35" customHeight="1">
+      <c r="A100" s="10">
         <v>99</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="12" t="s">
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="F100" s="11" t="s">
+      <c r="F100" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="G100" s="11" t="s">
+      <c r="G100" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="H100" s="11" t="s">
+      <c r="H100" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="I100" s="11" t="s">
+      <c r="I100" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="J100" s="11" t="s">
+      <c r="J100" s="10" t="s">
         <v>19</v>
       </c>
       <c r="K100">
@@ -6629,16 +5981,16 @@
       <c r="E101" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F101" s="13" t="s">
+      <c r="F101" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="G101" s="13" t="s">
+      <c r="G101" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="H101" s="13" t="s">
+      <c r="H101" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="I101" s="13" t="s">
+      <c r="I101" s="12" t="s">
         <v>556</v>
       </c>
       <c r="J101" s="1" t="s">
@@ -6653,6 +6005,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>